--- a/Document/Account/Digitalocean.xlsx
+++ b/Document/Account/Digitalocean.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Description</t>
   </si>
@@ -83,6 +83,24 @@
   </si>
   <si>
     <t>b(f?k7lx#?wA</t>
+  </si>
+  <si>
+    <t>create user 'mysqlvps8'@'%' identified by 'Abc@@123' REQUIRE X509;
+grant all privileges on *.* to 'hakase'@'%' identified by 'Abc@@123' REQUIRE X509;
+flush privileges;</t>
+  </si>
+  <si>
+    <t>MYSQLVPS8</t>
+  </si>
+  <si>
+    <t>MYSQLVPS8 (FOR MYSQL 8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+create user 'mysqlvps8'@'%' identified by 'Abc@@123';
+GRANT ALL PRIVILEGES ON *.* TO 'mysqlvps8'@'%' WITH GRANT OPTION;
+flush privileges;
+CREATE USER 'mysqlvps8'@'% ' IDENTIFIED WITH mysql_native_password BY 'Abc@@123';</t>
   </si>
 </sst>
 </file>
@@ -172,24 +190,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:C19" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:C19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A3:C19"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Description" dataDxfId="9"/>
-    <tableColumn id="2" name="Account" dataDxfId="8"/>
-    <tableColumn id="3" name="Password" dataDxfId="7"/>
+    <tableColumn id="1" name="Description" dataDxfId="7"/>
+    <tableColumn id="2" name="Account" dataDxfId="6"/>
+    <tableColumn id="3" name="Password" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A3:C19" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A3:C19" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A3:C19"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Description" dataDxfId="3"/>
-    <tableColumn id="2" name="Account" dataDxfId="2"/>
-    <tableColumn id="3" name="Password" dataDxfId="1"/>
+    <tableColumn id="1" name="Description" dataDxfId="2"/>
+    <tableColumn id="2" name="Account" dataDxfId="1"/>
+    <tableColumn id="3" name="Password" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -458,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C8"/>
+  <dimension ref="A3:C10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,6 +537,25 @@
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Account/Digitalocean.xlsx
+++ b/Document/Account/Digitalocean.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DigitalOcean" sheetId="1" r:id="rId1"/>
-    <sheet name="Azure" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Azure" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Description</t>
   </si>
@@ -102,15 +104,38 @@
 flush privileges;
 CREATE USER 'mysqlvps8'@'% ' IDENTIFIED WITH mysql_native_password BY 'Abc@@123';</t>
   </si>
+  <si>
+    <t>hung2603961@outlook.com</t>
+  </si>
+  <si>
+    <t>01228945350Hung</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Hung96!@#.1</t>
+  </si>
+  <si>
+    <t>hung_demo@hung2603961.onmicrosoft.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,20 +157,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -190,24 +251,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:C19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:C19" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A3:C19"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Description" dataDxfId="12"/>
+    <tableColumn id="2" name="Account" dataDxfId="11"/>
+    <tableColumn id="3" name="Password" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A3:C19" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A3:C19"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Description" dataDxfId="2"/>
+    <tableColumn id="2" name="Account" dataDxfId="1"/>
+    <tableColumn id="3" name="Password" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A3:C19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A3:C19"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Description" dataDxfId="7"/>
     <tableColumn id="2" name="Account" dataDxfId="6"/>
     <tableColumn id="3" name="Password" dataDxfId="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A3:C19" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A3:C19"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Description" dataDxfId="2"/>
-    <tableColumn id="2" name="Account" dataDxfId="1"/>
-    <tableColumn id="3" name="Password" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -478,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -568,10 +641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C6"/>
+  <dimension ref="A3:C5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,6 +666,65 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="4" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>10</v>
@@ -623,4 +755,20 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>